--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60743846-79B9-E84D-9F67-6B77AB34D399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49FAA3-6FE9-274B-A2D2-1A4DF162A861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
   <sheets>
     <sheet name="BLEU Score" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Lang 1</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>[Visual Studio Code, Compare Tool, Excel, Finder]</t>
+  </si>
+  <si>
+    <t>Elvis Presley (Largest in English src: https://diff.wikimedia.org/2016/05/12/rock-n-scroll-english-wikipedias-longest-featured-articles/)</t>
   </si>
 </sst>
 </file>
@@ -453,12 +456,12 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
@@ -589,6 +592,15 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>589</v>
+      </c>
       <c r="F3">
         <v>5.0000000000000001E-4</v>
       </c>

--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49FAA3-6FE9-274B-A2D2-1A4DF162A861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F041C73-5C2A-6646-A3D6-99DA32087C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Lang 1</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Elvis Presley (Largest in English src: https://diff.wikimedia.org/2016/05/12/rock-n-scroll-english-wikipedias-longest-featured-articles/)</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>Avg per Iteration (sec)</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9EBA7-2BE5-AA44-97C0-CA3360606022}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,12 +481,12 @@
     <col min="14" max="14" width="29.6640625" customWidth="1"/>
     <col min="15" max="15" width="16.1640625" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
     <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -530,10 +536,13 @@
         <v>16</v>
       </c>
       <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -544,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>310</v>
+        <v>683</v>
       </c>
       <c r="E2">
         <v>476</v>
@@ -554,15 +563,15 @@
       </c>
       <c r="G2">
         <f>D2*E2</f>
-        <v>147560</v>
+        <v>325108</v>
       </c>
       <c r="H2">
         <f>G2 * F2 / 60</f>
-        <v>1.2296666666666667</v>
+        <v>2.7092333333333332</v>
       </c>
       <c r="I2">
         <f>G2 * F2</f>
-        <v>73.78</v>
+        <v>162.554</v>
       </c>
       <c r="J2">
         <v>95.78</v>
@@ -587,39 +596,56 @@
         <f xml:space="preserve"> O2 / 60</f>
         <v>1.5478000000000001</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <f xml:space="preserve"> O2 / G2</f>
+        <v>2.8565276769565808E-4</v>
+      </c>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3">
-        <v>589</v>
+        <v>993</v>
+      </c>
+      <c r="E3">
+        <v>366</v>
       </c>
       <c r="F3">
-        <v>5.0000000000000001E-4</v>
+        <f>0.0006</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="0">D3*E3</f>
-        <v>0</v>
+        <v>363438</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H10" si="1">G3 * F3 / 60</f>
-        <v>0</v>
+        <v>3.6343799999999997</v>
       </c>
       <c r="I3">
         <f>G3 * F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F4">
-        <v>5.0000000000000001E-4</v>
+        <v>218.06279999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>216</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -634,10 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F5">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -647,10 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -664,10 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F7">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -681,10 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F8">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -698,10 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -715,10 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F10">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G10">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F041C73-5C2A-6646-A3D6-99DA32087C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D90667-4B3F-1346-A00A-6F4301A622CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D90667-4B3F-1346-A00A-6F4301A622CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D8415-AC8B-DD4D-9B6D-3A054C8FCB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Num Iterations O(m*n)</t>
   </si>
   <si>
-    <t>[Visual Studio Code, Compare Tool, Excel, Finder]</t>
-  </si>
-  <si>
     <t>Elvis Presley (Largest in English src: https://diff.wikimedia.org/2016/05/12/rock-n-scroll-english-wikipedias-longest-featured-articles/)</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Avg per Iteration (sec)</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9EBA7-2BE5-AA44-97C0-CA3360606022}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,6 +482,7 @@
     <col min="15" max="15" width="16.1640625" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="45.1640625" customWidth="1"/>
     <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R1" t="s">
         <v>13</v>
@@ -553,60 +554,60 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E2">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="F2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G2">
         <f>D2*E2</f>
-        <v>325108</v>
+        <v>278622</v>
       </c>
       <c r="H2">
         <f>G2 * F2 / 60</f>
-        <v>2.7092333333333332</v>
+        <v>2.32185</v>
       </c>
       <c r="I2">
         <f>G2 * F2</f>
-        <v>162.554</v>
+        <v>139.31100000000001</v>
       </c>
       <c r="J2">
-        <v>95.78</v>
+        <v>92</v>
       </c>
       <c r="K2">
-        <v>91.37</v>
+        <v>94.3</v>
       </c>
       <c r="L2">
-        <v>89.57</v>
+        <v>89.48</v>
       </c>
       <c r="M2">
-        <v>99.11</v>
+        <v>90.82</v>
       </c>
       <c r="N2">
-        <v>88.51</v>
+        <v>92.36</v>
       </c>
       <c r="O2">
         <f>AVERAGE(J2, K2, L2, M2, N2)</f>
-        <v>92.868000000000009</v>
+        <v>91.792000000000002</v>
       </c>
       <c r="P2">
         <f xml:space="preserve"> O2 / 60</f>
-        <v>1.5478000000000001</v>
+        <v>1.5298666666666667</v>
       </c>
       <c r="Q2">
         <f xml:space="preserve"> O2 / G2</f>
-        <v>2.8565276769565808E-4</v>
+        <v>3.2944993575525263E-4</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -639,7 +640,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>

--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D8415-AC8B-DD4D-9B6D-3A054C8FCB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E65CD5-588C-244E-9615-AFBDC88179FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Lang 1</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Num Iterations O(m*n)</t>
   </si>
   <si>
-    <t>Elvis Presley (Largest in English src: https://diff.wikimedia.org/2016/05/12/rock-n-scroll-english-wikipedias-longest-featured-articles/)</t>
-  </si>
-  <si>
     <t>Boris Johnson</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
   </si>
 </sst>
 </file>
@@ -143,8 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,278 +464,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9EBA7-2BE5-AA44-97C0-CA3360606022}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" customWidth="1"/>
-    <col min="13" max="13" width="29.1640625" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="1" customWidth="1"/>
     <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>673</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>414</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>D2*E2</f>
         <v>278622</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>G2 * F2 / 60</f>
         <v>2.32185</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>G2 * F2</f>
         <v>139.31100000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>92</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>94.3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>89.48</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>90.82</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>92.36</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <f>AVERAGE(J2, K2, L2, M2, N2)</f>
         <v>91.792000000000002</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <f xml:space="preserve"> O2 / 60</f>
         <v>1.5298666666666667</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <f xml:space="preserve"> O2 / G2</f>
         <v>3.2944993575525263E-4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>993</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>366</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>0.0006</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G10" si="0">D3*E3</f>
         <v>363438</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H10" si="1">G3 * F3 / 60</f>
         <v>3.6343799999999997</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>G3 * F3</f>
         <v>218.06279999999998</v>
       </c>
+      <c r="J3" s="1">
+        <v>112.99</v>
+      </c>
+      <c r="K3" s="1">
+        <v>112.11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>112.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>110.5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>110.15</v>
+      </c>
+      <c r="O3" s="1">
+        <f>AVERAGE(J3, K3, L3, M3, N3)</f>
+        <v>111.65</v>
+      </c>
+      <c r="P3" s="1">
+        <f xml:space="preserve"> O3 / 60</f>
+        <v>1.8608333333333333</v>
+      </c>
+      <c r="Q3" s="1">
+        <f xml:space="preserve"> O3 / G3</f>
+        <v>3.0720508037134257E-4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>216</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>G4 * F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>G5 * F5 / 60</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f>G6 * F6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f>G7 * F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f>G8 * F8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f>G9 * F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G10">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E65CD5-588C-244E-9615-AFBDC88179FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E7EFB9-12BE-E648-9AB4-D4E88C5D4F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Lang 1</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Est - Actual</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9EBA7-2BE5-AA44-97C0-CA3360606022}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,11 +490,12 @@
     <col min="16" max="16" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.33203125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,10 +548,13 @@
         <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,8 +582,8 @@
         <v>2.32185</v>
       </c>
       <c r="I2" s="1">
-        <f>G2 * F2</f>
-        <v>139.31100000000001</v>
+        <f>ROUNDUP(G2 * F2, 2)</f>
+        <v>139.32</v>
       </c>
       <c r="J2" s="1">
         <v>92</v>
@@ -605,11 +612,15 @@
         <f xml:space="preserve"> O2 / G2</f>
         <v>3.2944993575525263E-4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1">
+        <f>I2 - O2</f>
+        <v>47.527999999999992</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -626,8 +637,8 @@
         <v>366</v>
       </c>
       <c r="F3" s="1">
-        <f>0.0006</f>
-        <v>5.9999999999999995E-4</v>
+        <f>0.0005</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G10" si="0">D3*E3</f>
@@ -635,11 +646,11 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H10" si="1">G3 * F3 / 60</f>
-        <v>3.6343799999999997</v>
+        <v>3.0286499999999998</v>
       </c>
       <c r="I3" s="1">
-        <f>G3 * F3</f>
-        <v>218.06279999999998</v>
+        <f t="shared" ref="I3:I10" si="2">ROUNDUP(G3 * F3, 2)</f>
+        <v>181.72</v>
       </c>
       <c r="J3" s="1">
         <v>112.99</v>
@@ -668,11 +679,15 @@
         <f xml:space="preserve"> O3 / G3</f>
         <v>3.0720508037134257E-4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1">
+        <f>I3 - O3</f>
+        <v>70.069999999999993</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -682,6 +697,10 @@
       <c r="D4" s="1">
         <v>216</v>
       </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F10" si="3">0.0005</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -691,11 +710,31 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>G4 * F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="e">
+        <f t="shared" ref="O4:O11" si="4">AVERAGE(J4, K4, L4, M4, N4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="1" t="e">
+        <f t="shared" ref="P4:P11" si="5" xml:space="preserve"> O4 / 60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="1" t="e">
+        <f t="shared" ref="Q4:Q11" si="6" xml:space="preserve"> O4 / G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="1" t="e">
+        <f t="shared" ref="R4:R11" si="7">I4 - O4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -704,8 +743,32 @@
         <f>G5 * F5 / 60</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -715,11 +778,31 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>G6 * F6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -729,11 +812,31 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>G7 * F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -743,11 +846,31 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>G8 * F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -757,11 +880,31 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>G9 * F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -769,6 +912,44 @@
       <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E7EFB9-12BE-E648-9AB4-D4E88C5D4F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC872F51-4D19-F043-B600-5A541439B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
   <sheets>
-    <sheet name="BLEU Score" sheetId="1" r:id="rId1"/>
+    <sheet name="Whole Article BLEU Score" sheetId="1" r:id="rId1"/>
+    <sheet name="Section BLEU Score" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Lang 1</t>
   </si>
@@ -111,6 +112,15 @@
   </si>
   <si>
     <t>Est - Actual</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>Sentences Section 1</t>
+  </si>
+  <si>
+    <t>Sentences Section 2</t>
   </si>
 </sst>
 </file>
@@ -467,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9EBA7-2BE5-AA44-97C0-CA3360606022}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,4 +968,98 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2240BB-A368-9742-B5AB-248B9358CFD7}">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.83203125" customWidth="1"/>
+    <col min="12" max="13" width="27.5" customWidth="1"/>
+    <col min="14" max="14" width="26.83203125" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Compare_Tests.xlsx
+++ b/Compare_Tests.xlsx
@@ -8,35 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/project-symmetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A5BCE-1C71-E948-A124-E7A5D5EB8D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB520C-9133-B94F-8FFE-5BE948210591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
+    <workbookView xWindow="15900" yWindow="600" windowWidth="13440" windowHeight="16300" activeTab="2" xr2:uid="{C6D50D6E-BAF6-1D48-8564-4D25AB3A0685}"/>
   </bookViews>
   <sheets>
     <sheet name="Section BLEU Score" sheetId="2" r:id="rId1"/>
     <sheet name="Estimates" sheetId="3" r:id="rId2"/>
     <sheet name="Whole Article BLEU Score" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Estimates!$A$2:$A$1048576</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Estimates!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Estimates!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Estimates!$B$2:$B$1048576</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Estimates!$A$2:$A$1048576</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Estimates!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Estimates!$B$2:$B$1048576</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Estimates!$A$2:$A$1048576</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Estimates!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Estimates!$B$2:$B$1048576</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Estimates!$B$2:$B$1048576</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Estimates!$A$2:$A$1048576</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Estimates!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Estimates!$B$2:$B$1048576</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Estimates!$A$2:$A$1048576</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Estimates!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Estimates!$B$2:$B$1048576</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Estimates!$A$2:$A$1048576</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Lang 1</t>
   </si>
@@ -172,6 +152,27 @@
   </si>
   <si>
     <t>Total Time</t>
+  </si>
+  <si>
+    <t>1935-1953</t>
+  </si>
+  <si>
+    <t>1953-1956</t>
+  </si>
+  <si>
+    <t>1956-1958</t>
+  </si>
+  <si>
+    <t>1958-1960</t>
+  </si>
+  <si>
+    <t>1960-1968</t>
+  </si>
+  <si>
+    <t>1968-1973</t>
+  </si>
+  <si>
+    <t>1973-1977</t>
   </si>
 </sst>
 </file>
@@ -357,10 +358,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Estimates!$A$2:$A$1048576</c:f>
+              <c:f>Estimates!$A$2:$A$708</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048575"/>
+                <c:ptCount val="707"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2487,10 +2488,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Estimates!$B$2:$B$1048576</c:f>
+              <c:f>Estimates!$B$2:$B$708</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048575"/>
+                <c:ptCount val="707"/>
                 <c:pt idx="0">
                   <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
@@ -5833,10 +5834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2240BB-A368-9742-B5AB-248B9358CFD7}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5854,7 +5855,8 @@
     <col min="12" max="13" width="27.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="32.83203125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="21.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="23.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
     <col min="20" max="20" width="20.83203125" style="1" customWidth="1"/>
@@ -5924,7 +5926,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -5936,59 +5938,56 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H2" s="1">
         <f>E2*F2</f>
-        <v>650</v>
+        <v>462</v>
       </c>
       <c r="I2" s="1">
         <f>H2*G2 /60</f>
-        <v>5.4166666666666669E-3</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="J2" s="1">
         <f xml:space="preserve"> G2 * H2</f>
-        <v>0.32500000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="K2" s="1">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="1">
         <v>0.2</v>
       </c>
       <c r="M2" s="1">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="O2" s="1">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="P2" s="1">
         <f>AVERAGE(K2, L2, M2, N2, O2)</f>
-        <v>0.22200000000000003</v>
+        <v>0.152</v>
       </c>
       <c r="Q2" s="1">
         <f>P2 / 60</f>
-        <v>3.7000000000000006E-3</v>
+        <v>2.5333333333333332E-3</v>
       </c>
       <c r="R2" s="1">
         <f xml:space="preserve"> P2 / H2</f>
-        <v>3.4153846153846159E-4</v>
+        <v>3.2900432900432897E-4</v>
       </c>
       <c r="S2" s="1">
         <f xml:space="preserve"> J2 - P2</f>
-        <v>0.10299999999999998</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>7.9000000000000015E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -5996,7 +5995,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -6005,72 +6004,415 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H4" si="0">E3*F3</f>
-        <v>462</v>
+        <f t="shared" ref="H3:H9" si="0">E3*F3</f>
+        <v>1518</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I4" si="1">H3*G3 /60</f>
-        <v>3.8500000000000001E-3</v>
+        <f t="shared" ref="I3:I10" si="1">H3*G3 /60</f>
+        <v>1.265E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J4" si="2" xml:space="preserve"> G3 * H3</f>
-        <v>0.23100000000000001</v>
+        <f t="shared" ref="J3:J9" si="2" xml:space="preserve"> G3 * H3</f>
+        <v>0.75900000000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="L3" s="1">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="M3" s="1">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="N3" s="1">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="P3" s="1">
-        <f>AVERAGE(K3, L3, M3, N3, O3)</f>
-        <v>0.156</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>P3 / 60</f>
-        <v>2.5999999999999999E-3</v>
+        <f t="shared" ref="P3:P9" si="3">AVERAGE(K3, L3, M3, N3, O3)</f>
+        <v>0.44800000000000006</v>
       </c>
       <c r="R3" s="1">
-        <f xml:space="preserve"> P3 / H3</f>
-        <v>3.3766233766233767E-4</v>
-      </c>
-      <c r="S3" s="1">
-        <f xml:space="preserve"> J3 - P3</f>
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" ref="R3:R10" si="4" xml:space="preserve"> P3 / H3</f>
+        <v>2.9512516469038213E-4</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1">
+        <v>49</v>
+      </c>
       <c r="G4" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4312</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5933333333333338E-2</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.198</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7782931354359923E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>163</v>
+      </c>
+      <c r="F5" s="1">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>9128</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6066666666666671E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5640000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>2.31</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5306748466257667E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>783</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5250000000000004E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>2.681992337164751E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>2090</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7416666666666667E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91799999999999993</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3923444976076551E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>126</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>5292</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9629629629629629E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>141</v>
+      </c>
+      <c r="F9" s="1">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>3948</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.974</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1039999999999999</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7963525835866256E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>SUM(P2:P9)</f>
+        <v>7.9080000000000004</v>
+      </c>
+      <c r="R10" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <f>+H13</f>
         <v>0</v>
       </c>
     </row>
@@ -13161,7 +13503,7 @@
         <v>498436</v>
       </c>
       <c r="B707">
-        <f t="shared" ref="B707:B709" si="22">A707 * P$1</f>
+        <f t="shared" ref="B707:B708" si="22">A707 * P$1</f>
         <v>149.5308</v>
       </c>
     </row>
@@ -13188,8 +13530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB9EBA7-2BE5-AA44-97C0-CA3360606022}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13322,19 +13664,19 @@
         <v>92.36</v>
       </c>
       <c r="O2" s="1">
-        <f>AVERAGE(J2, K2, L2, M2, N2)</f>
+        <f t="shared" ref="O2:O7" si="0">AVERAGE(J2, K2, L2, M2, N2)</f>
         <v>91.792000000000002</v>
       </c>
       <c r="P2" s="1">
-        <f xml:space="preserve"> O2 / 60</f>
+        <f t="shared" ref="P2:P7" si="1" xml:space="preserve"> O2 / 60</f>
         <v>1.5298666666666667</v>
       </c>
       <c r="Q2" s="1">
-        <f xml:space="preserve"> O2 / G2</f>
+        <f t="shared" ref="Q2:Q7" si="2" xml:space="preserve"> O2 / G2</f>
         <v>3.2944993575525263E-4</v>
       </c>
       <c r="R2" s="1">
-        <f>I2 - O2</f>
+        <f t="shared" ref="R2:R7" si="3">I2 - O2</f>
         <v>47.527999999999992</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -13362,15 +13704,15 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3" si="0">D3*E3</f>
+        <f t="shared" ref="G3" si="4">D3*E3</f>
         <v>363438</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3" si="1">G3 * F3 / 60</f>
+        <f t="shared" ref="H3" si="5">G3 * F3 / 60</f>
         <v>3.0286499999999998</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3" si="2">ROUNDUP(G3 * F3, 2)</f>
+        <f t="shared" ref="I3" si="6">ROUNDUP(G3 * F3, 2)</f>
         <v>181.72</v>
       </c>
       <c r="J3" s="1">
@@ -13389,11 +13731,11 @@
         <v>110.15</v>
       </c>
       <c r="O3" s="1">
-        <f>AVERAGE(J3, K3, L3, M3, N3)</f>
+        <f t="shared" si="0"/>
         <v>111.65</v>
       </c>
       <c r="P3" s="1">
-        <f xml:space="preserve"> O3 / 60</f>
+        <f t="shared" si="1"/>
         <v>1.8608333333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -13401,7 +13743,7 @@
         <v>3.0720508037134257E-4</v>
       </c>
       <c r="R3" s="1">
-        <f>I3 - O3</f>
+        <f t="shared" si="3"/>
         <v>70.069999999999993</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -13425,7 +13767,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F10" si="3">0.0005</f>
+        <f t="shared" ref="F4:F10" si="7">0.0005</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G4" s="1">
@@ -13456,19 +13798,19 @@
         <v>1.51</v>
       </c>
       <c r="O4" s="1">
-        <f>AVERAGE(J4, K4, L4, M4, N4)</f>
+        <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
       <c r="P4" s="1">
-        <f xml:space="preserve"> O4 / 60</f>
+        <f t="shared" si="1"/>
         <v>2.2333333333333334E-2</v>
       </c>
       <c r="Q4" s="1">
-        <f xml:space="preserve"> O4 / G4</f>
+        <f t="shared" si="2"/>
         <v>2.7916666666666666E-4</v>
       </c>
       <c r="R4" s="1">
-        <f>I4 - O4</f>
+        <f t="shared" si="3"/>
         <v>1.0599999999999998</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -13492,7 +13834,7 @@
         <v>233</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G5" s="1">
@@ -13523,19 +13865,19 @@
         <v>63.46</v>
       </c>
       <c r="O5" s="1">
-        <f>AVERAGE(J5, K5, L5, M5, N5)</f>
+        <f t="shared" si="0"/>
         <v>66.402000000000001</v>
       </c>
       <c r="P5" s="1">
-        <f xml:space="preserve"> O5 / 60</f>
+        <f t="shared" si="1"/>
         <v>1.1067</v>
       </c>
       <c r="Q5" s="1">
-        <f xml:space="preserve"> O5 / G5</f>
+        <f t="shared" si="2"/>
         <v>3.4796962693958402E-4</v>
       </c>
       <c r="R5" s="1">
-        <f>I5 - O5</f>
+        <f t="shared" si="3"/>
         <v>29.018000000000001</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -13559,7 +13901,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G6" s="1">
@@ -13590,19 +13932,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O6" s="1">
-        <f>AVERAGE(J6, K6, L6, M6, N6)</f>
+        <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
       <c r="P6" s="1">
-        <f xml:space="preserve"> O6 / 60</f>
+        <f t="shared" si="1"/>
         <v>4.6333333333333339E-3</v>
       </c>
       <c r="Q6" s="1">
-        <f xml:space="preserve"> O6 / G6</f>
+        <f t="shared" si="2"/>
         <v>3.3213859020310638E-4</v>
       </c>
       <c r="R6" s="1">
-        <f>I6 - O6</f>
+        <f t="shared" si="3"/>
         <v>0.14199999999999996</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -13626,7 +13968,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G7" s="1">
@@ -13657,19 +13999,19 @@
         <v>0.38</v>
       </c>
       <c r="O7" s="1">
-        <f>AVERAGE(J7, K7, L7, M7, N7)</f>
+        <f t="shared" si="0"/>
         <v>0.38599999999999995</v>
       </c>
       <c r="P7" s="1">
-        <f xml:space="preserve"> O7 / 60</f>
+        <f t="shared" si="1"/>
         <v>6.4333333333333326E-3</v>
       </c>
       <c r="Q7" s="1">
-        <f xml:space="preserve"> O7 / G7</f>
+        <f t="shared" si="2"/>
         <v>2.9022556390977442E-4</v>
       </c>
       <c r="R7" s="1">
-        <f>I7 - O7</f>
+        <f t="shared" si="3"/>
         <v>0.28400000000000009</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -13678,19 +14020,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
